--- a/mnp/slg/MAP_SkillData_Ronan.xlsx
+++ b/mnp/slg/MAP_SkillData_Ronan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>SubId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,22 +128,28 @@
 If the skill effect is the same but skill id is different, the effects will be stacked.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>eg: eddard launch skill id 1, level 1, poison for 4 turns, at the end of turn 2, Kiryu launched the same skill id 1, the poison launched by Eddard is gone, and only 1 poison Is in effect</t>
+  </si>
+  <si>
+    <t>eg: eddard launch skill id 1, level 1 poison for 4 turns, at the end of turn 2, Kiryu launched skill id 2, the poison will be stacked and enemy will suffer 2x poison</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -478,22 +484,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="112.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="112.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -516,7 +522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="75">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -524,7 +530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -541,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -558,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -575,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>1</v>
       </c>
@@ -589,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>1</v>
       </c>
@@ -603,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8">
         <v>1</v>
       </c>
@@ -615,6 +621,16 @@
       </c>
       <c r="E8">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -628,22 +644,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.75" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,17 +688,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="120">
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -693,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
@@ -707,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3</v>
       </c>
@@ -718,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>4</v>
       </c>
@@ -746,12 +762,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -762,7 +778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -773,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -781,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
